--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2337.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2337.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.393959272946125</v>
+        <v>0.8711434602737427</v>
       </c>
       <c r="B1">
-        <v>2.586160248913424</v>
+        <v>0.7253850102424622</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.644395649433136</v>
       </c>
       <c r="D1">
-        <v>1.301511233288863</v>
+        <v>0.7071085572242737</v>
       </c>
       <c r="E1">
-        <v>0.595263501914184</v>
+        <v>0.8773908019065857</v>
       </c>
     </row>
   </sheetData>
